--- a/biology/Botanique/Palicourea_tenerior/Palicourea_tenerior.xlsx
+++ b/biology/Botanique/Palicourea_tenerior/Palicourea_tenerior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea tenerior est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea tenerior est un sous-arbrisseau ou arbuste, pubérulent à glabre, atteignant jusqu'à 1 m de haut.
 Les feuilles mesurent 4-14 × 1,2-3,5 cm, avec des pétioles longs de 2-6 mm. 
@@ -519,10 +533,10 @@
 Les inflorescences sont terminales, corymbiformes, avec un pédoncule long de 1,3-5 cm, une portion ramifiée mesurant 0,5-1,5 × 1-4 cm, les bractées florales longues de 4-9 mm, apparemment vertes. 
 Les fleurs sont sessiles, avec le limbe du calice long d'environ 0,4 mm, denté. 
 La corolle est blanche, avec un tube long d'environ 3,5 mm, des lobes longs d'environ 1 mm.
-Le fruit est ellipsoïde, pourpre, mesurant environ 2,5 × 3,5 mm, contenant 2 pyrènes, avec une fissure ventrale longitudinale centrale, et dorsalement strié[5].
+Le fruit est ellipsoïde, pourpre, mesurant environ 2,5 × 3,5 mm, contenant 2 pyrènes, avec une fissure ventrale longitudinale centrale, et dorsalement strié.
 En 1953, Lemée en propose la description suivante de Palicourea tenerior :
 « [Psychotria] officinalis Raeusch , (Nonatelia o. Aublet), Petit arbrisseau bientôt glabre ; feuilles de 0,06-0,07 sur 12-32 mm., elliptiques ou lancéolées acuminées, aiguës ou presque à la base, subcoriaces, glabres en dessus, un peu pubérulentes en dessous sur les nervures, avec environ 6 paires de nervures, gaine stipulaire à 2 courtes dents. glabre sur les 2 faces ; infloresceuees en corymbes ou ombelles, pédonculées ; fleurs sessiles en faisceaux pauciflores au sommet des ramifications et munis d'une seule bractée; celle-ci longue de 8 mm., bractéoles 0, calice campanulé pubescent en dehors, corolle blanche pubescente en dehors, à tube de 6 mm. et lobes de 1 et demi ; drupe globuleuse à diamètre de 3 mm., à noyaux subanguleux. - Saint-Jean, Charvein, crique Coswine (R. Benoist); herbier Lemée : camp de l'Orapu, Charvein. »
-— Albert Lemée, 1953.[6]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea tenerior est présent de la Colombie au Brésil, en passant par le Venezuela (Bolívar : bassin du Río Cuyuní, Río Yuruaní supérieur, Amazonas : bassin du Río Negro), le Guyana, le Suriname, et la Guyane[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea tenerior est présent de la Colombie au Brésil, en passant par le Venezuela (Bolívar : bassin du Río Cuyuní, Río Yuruaní supérieur, Amazonas : bassin du Río Negro), le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea tenerior pousse dans les forêts de plaine et de montagne, à 100-600 m d'altitude[5].
-Palicourea tenerior est pollinisé par des abeilles autochtones[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea tenerior pousse dans les forêts de plaine et de montagne, à 100-600 m d'altitude.
+Palicourea tenerior est pollinisé par des abeilles autochtones.
 </t>
         </is>
       </c>
@@ -613,14 +631,16 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1827, Descourtilz considère Palicourea tenerior comme un "Béchique incisif" et rapporte ceci :
 « ANALYSE CHIMIQUE. Toute la plante fournit une fécule verte, soluble dans l'alcool; une matière extractive un peu mordante ; une partie fibreuse ; un sel végétal à base de chaux. Les fruits contiennent du mucilage sucré, légèrement acide.
 PRORPIÉTÉS MÉDICINALES. Toute la plante est en usage, soit en infusion ou en décoction. Elle est pectorale incisive, et les Créoles l'appellent azier à l'asthme, à cause des bons effets qu'ils ont éprouvés de son usage pour le soulagement et la guérison de cette maladie. On lui reconnaît en outre des propriétés apéritives, vulnéraires et détersives.
 MODE D’ADMINISTRATION. La dose est d’une poignée pour une livre de décoction. On prépare l'extrait, la conserve et le sirop des fleurs et des feuilles. Le sirop surtout est excellent pour l'asthme, La dose du sirop est d’une once, et celle de l'extrait de demi-once. »
-— M. E. Descourtilz, 1827.[1]
-Sa phytochimie et sa toxicité ont été étudiées[8],[9].
+— M. E. Descourtilz, 1827.
+Sa phytochimie et sa toxicité ont été étudiées,.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea tenerior sous le nom de Nonatelia officinalis et en a proposé le protologue suivant[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea tenerior sous le nom de Nonatelia officinalis et en a proposé le protologue suivant : 
 « 1. NONATELIA (officinalis) foliis ovatis ; acutis ; calicis invocro triphyllo. {Tabula 70. Fig. 1.)
 Planta perennis bi &amp; tri-pedalis, Caulis nodoſus, ramoſus. Folia oppoſita, glabra ; ovato-lanceolata, integerrima, ſubſeſſilia, baſi periolorum connexa vaginæ brevi, amplexicauli, quadridentatæ ; denticulis longis, acutis. Flores corymboſi, terminales. Pedunculi communes, pedunculi partiales, tribus ſquamulis rigidis, acutis, muniuntur. Involucrum calicis trifidum.
 Corolla alba. Bacca nigra, ſphaerica, decem ſtriata.
